--- a/XinHu/data/data.xlsx
+++ b/XinHu/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\XinHu\XinHu\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8FAA33-A01C-434F-BC8B-B20C3E7953FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03332309-822A-4C7E-8F9F-83BF3CACB774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>呵呵哒</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>789012</t>
   </si>
   <si>
     <t>输入内容</t>
@@ -126,6 +117,67 @@
       </rPr>
       <t>sd</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tom2</t>
+  </si>
+  <si>
+    <t>tom3</t>
+  </si>
+  <si>
+    <t>tom4</t>
+  </si>
+  <si>
+    <t>jerry1</t>
+  </si>
+  <si>
+    <t>jerry2</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>ranking</t>
+  </si>
+  <si>
+    <t>cbo</t>
+  </si>
+  <si>
+    <t>cco</t>
+  </si>
+  <si>
+    <t>cdo</t>
+  </si>
+  <si>
+    <t>cfo</t>
+  </si>
+  <si>
+    <t>ceo</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>13245678901</t>
+  </si>
+  <si>
+    <t>13245678902</t>
+  </si>
+  <si>
+    <t>13245678903</t>
+  </si>
+  <si>
+    <t>13245678904</t>
+  </si>
+  <si>
+    <t>13245678905</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>jerry2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -508,37 +560,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -560,22 +689,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -601,22 +730,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -641,27 +770,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -682,26 +811,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -714,7 +843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C49627-10C9-429D-9D42-FB3959A4120A}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -722,44 +851,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
